--- a/Jobster/ProjectFiles/jobster.xlsx
+++ b/Jobster/ProjectFiles/jobster.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moura\eclipse-workspace\jobster\Jobster\ProjectFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mourad\eclipse-workspace\jobster\Jobster\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61A85B7-42D2-4358-B355-D4CE753FCE78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748B00E2-0A84-4669-A741-AB70CCD6D895}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>RqmtNo</t>
   </si>
@@ -198,25 +198,22 @@
     <t>JSP - create new page for displaying recommended job posts</t>
   </si>
   <si>
-    <t>Edit index.jsp to display the recommended page link</t>
-  </si>
-  <si>
-    <t>create recommnded jsp for dislpaying the job posts</t>
-  </si>
-  <si>
     <t>SQL - Query tables to get matches based on location / field / level of experience</t>
   </si>
   <si>
-    <t>Create tables: 1. for storing recommendations 2. for storing user category Or profession</t>
-  </si>
-  <si>
-    <t>trigger: for updating recommendations table everytime a new job post is added</t>
-  </si>
-  <si>
     <t>add column for 'years of experience' in Users table and in Job_post table</t>
   </si>
   <si>
     <t>This functionality is about recommending job posts to a jobseeker based on location, years of experience, and field</t>
+  </si>
+  <si>
+    <t>Edit viewposts.jsp to display the recommended page link</t>
+  </si>
+  <si>
+    <t>create recommnded.jsp for dislpaying the job posts</t>
+  </si>
+  <si>
+    <t>add column for 'field' in jobseekers table</t>
   </si>
 </sst>
 </file>
@@ -595,20 +592,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="77.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
-    <col min="5" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -622,7 +619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -636,7 +633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -650,7 +647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -664,7 +661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -675,7 +672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -686,7 +683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -697,7 +694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -708,7 +705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -719,7 +716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -727,13 +724,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -744,7 +741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -755,7 +752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -766,7 +763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -777,7 +774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -788,7 +785,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -799,7 +796,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -813,7 +810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -827,21 +824,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="D20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -855,22 +852,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>49</v>
       </c>
@@ -878,12 +875,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>51</v>
       </c>
@@ -891,22 +888,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D34" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D35" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>9</v>
       </c>
@@ -917,49 +914,47 @@
         <v>56</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="D54" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="D57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
-      <c r="D58" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="D58" s="7"/>
       <c r="E58" s="7"/>
     </row>
   </sheetData>
